--- a/TestData/test_Data.xlsx
+++ b/TestData/test_Data.xlsx
@@ -1,55 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palas\PycharmProjects\nopcommerceApp\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA71743-28C6-4F6C-8F31-09E071DEE5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5130" yWindow="4455" windowWidth="17940" windowHeight="10965" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="5130" yWindow="4455" windowWidth="17940" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>admin@yourstore.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>https://admin-demo.nopcommerce.com</t>
+  </si>
+  <si>
+    <t>admin123@yourstore.com</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>admin54@yourstore.com</t>
+  </si>
+  <si>
+    <t>admin456</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF777777"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF777777"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,100 +118,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -468,128 +452,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="28" customWidth="1" style="2" min="1" max="1"/>
-    <col width="18.42578125" customWidth="1" min="2" max="2"/>
-    <col width="65.85546875" customWidth="1" style="6" min="3" max="3"/>
-    <col width="46.28515625" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="28" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>User name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>admin@yourstore.com</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Title Valid--Test passed</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>https://admin-demo.nopcommerce.com</t>
-        </is>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>admin@yourstore.com</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Title not Valid --Test failed</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n"/>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>admin123@yourstore.com</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>admin123</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Title not Valid --Test failed</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>admin54@yourstore.com</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>admin456</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Title not Valid --Test failed</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n"/>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/TestData/test_Data.xlsx
+++ b/TestData/test_Data.xlsx
@@ -1,98 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palas\PycharmProjects\nopcommerceApp\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA71743-28C6-4F6C-8F31-09E071DEE5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="4455" windowWidth="17940" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5130" yWindow="4455" windowWidth="17940" windowHeight="10965" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>User name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>admin@yourstore.com</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>https://admin-demo.nopcommerce.com</t>
-  </si>
-  <si>
-    <t>admin123@yourstore.com</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>admin54@yourstore.com</t>
-  </si>
-  <si>
-    <t>admin456</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF777777"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF777777"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,41 +75,100 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -452,82 +468,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col width="28" customWidth="1" style="2" min="1" max="1"/>
+    <col width="18.42578125" customWidth="1" min="2" max="2"/>
+    <col width="65.85546875" customWidth="1" style="6" min="3" max="3"/>
+    <col width="46.28515625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>User name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>admin@yourstore.com</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Title Valid--Test passed</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>https://admin-demo.nopcommerce.com</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>admin@yourstore.com</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Title Valid--Test passed</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>admin123@yourstore.com</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Title not Valid --Test failed</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>admin54@yourstore.com</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>admin456</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Title not Valid --Test failed</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
